--- a/lab1/report/inc/img/time.xlsx
+++ b/lab1/report/inc/img/time.xlsx
@@ -527,7 +527,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.001041666666666667</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -547,10 +547,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.003125</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>0.0015625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -570,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.0046875</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="G8">
-        <v>0.0046875</v>
+        <v>0.005208333333333333</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.0265625</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="G9">
-        <v>0.0265625</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -616,10 +616,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.1390625</v>
+        <v>0.1395833333333333</v>
       </c>
       <c r="G10">
-        <v>0.1421875</v>
+        <v>0.140625</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -639,10 +639,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.78125</v>
+        <v>0.7541666666666667</v>
       </c>
       <c r="G11">
-        <v>0.778125</v>
+        <v>0.9489583333333333</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -662,10 +662,10 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.35</v>
+        <v>4.188541666666667</v>
       </c>
       <c r="G12">
-        <v>4.1328125</v>
+        <v>4.330208333333333</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>0.001041666666666667</v>
       </c>
       <c r="E13">
-        <v>0.0015625</v>
+        <v>0.001041666666666667</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -693,13 +693,13 @@
         <v>30</v>
       </c>
       <c r="C14">
-        <v>0.0015625</v>
+        <v>0.001041666666666667</v>
       </c>
       <c r="D14">
-        <v>0.0015625</v>
+        <v>0.001041666666666667</v>
       </c>
       <c r="E14">
-        <v>0.0015625</v>
+        <v>0.001041666666666667</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -710,13 +710,13 @@
         <v>40</v>
       </c>
       <c r="C15">
-        <v>0.0015625</v>
+        <v>0.002083333333333333</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>0.002083333333333333</v>
       </c>
       <c r="E15">
-        <v>0.0015625</v>
+        <v>0.002083333333333333</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -727,7 +727,7 @@
         <v>50</v>
       </c>
       <c r="C16">
-        <v>0.0015625</v>
+        <v>0.001041666666666667</v>
       </c>
       <c r="D16">
         <v>0.003125</v>
@@ -744,13 +744,13 @@
         <v>60</v>
       </c>
       <c r="C17">
-        <v>0.0015625</v>
+        <v>0.003125</v>
       </c>
       <c r="D17">
-        <v>0.0046875</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="E17">
-        <v>0.0046875</v>
+        <v>0.004166666666666667</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -761,10 +761,10 @@
         <v>70</v>
       </c>
       <c r="C18">
-        <v>0.0046875</v>
+        <v>0.004166666666666667</v>
       </c>
       <c r="D18">
-        <v>0.00625</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="E18">
         <v>0.00625</v>
@@ -778,13 +778,13 @@
         <v>80</v>
       </c>
       <c r="C19">
-        <v>0.0046875</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="D19">
-        <v>0.0078125</v>
+        <v>0.009375</v>
       </c>
       <c r="E19">
-        <v>0.0078125</v>
+        <v>0.009375</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -795,13 +795,13 @@
         <v>90</v>
       </c>
       <c r="C20">
-        <v>0.00625</v>
+        <v>0.005208333333333333</v>
       </c>
       <c r="D20">
-        <v>0.0109375</v>
+        <v>0.01354166666666667</v>
       </c>
       <c r="E20">
-        <v>0.0109375</v>
+        <v>0.01041666666666667</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -812,13 +812,13 @@
         <v>100</v>
       </c>
       <c r="C21">
-        <v>0.0078125</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="D21">
-        <v>0.0109375</v>
+        <v>0.01145833333333333</v>
       </c>
       <c r="E21">
-        <v>0.0140625</v>
+        <v>0.0125</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -829,10 +829,10 @@
         <v>110</v>
       </c>
       <c r="C22">
-        <v>0.009375</v>
+        <v>0.008333333333333333</v>
       </c>
       <c r="D22">
-        <v>0.0171875</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E22">
         <v>0.015625</v>
@@ -846,13 +846,13 @@
         <v>120</v>
       </c>
       <c r="C23">
-        <v>0.009375</v>
+        <v>0.01041666666666667</v>
       </c>
       <c r="D23">
-        <v>0.01875</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="E23">
-        <v>0.0203125</v>
+        <v>0.02291666666666667</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -869,7 +869,7 @@
         <v>0.021875</v>
       </c>
       <c r="E24">
-        <v>0.021875</v>
+        <v>0.025</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -880,13 +880,13 @@
         <v>140</v>
       </c>
       <c r="C25">
-        <v>0.0171875</v>
+        <v>0.01666666666666667</v>
       </c>
       <c r="D25">
-        <v>0.0296875</v>
+        <v>0.025</v>
       </c>
       <c r="E25">
-        <v>0.028125</v>
+        <v>0.02604166666666667</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -897,13 +897,13 @@
         <v>150</v>
       </c>
       <c r="C26">
-        <v>0.0171875</v>
+        <v>0.01875</v>
       </c>
       <c r="D26">
-        <v>0.0265625</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="E26">
-        <v>0.0296875</v>
+        <v>0.03020833333333333</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -914,13 +914,13 @@
         <v>160</v>
       </c>
       <c r="C27">
-        <v>0.0203125</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="D27">
-        <v>0.03125</v>
+        <v>0.03229166666666667</v>
       </c>
       <c r="E27">
-        <v>0.040625</v>
+        <v>0.03333333333333333</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -931,13 +931,13 @@
         <v>170</v>
       </c>
       <c r="C28">
-        <v>0.03125</v>
+        <v>0.021875</v>
       </c>
       <c r="D28">
-        <v>0.0359375</v>
+        <v>0.034375</v>
       </c>
       <c r="E28">
-        <v>0.0390625</v>
+        <v>0.0375</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -948,13 +948,13 @@
         <v>180</v>
       </c>
       <c r="C29">
-        <v>0.025</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="D29">
-        <v>0.0390625</v>
+        <v>0.03854166666666667</v>
       </c>
       <c r="E29">
-        <v>0.05</v>
+        <v>0.04166666666666666</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -968,7 +968,7 @@
         <v>0.03125</v>
       </c>
       <c r="D30">
-        <v>0.0421875</v>
+        <v>0.04270833333333333</v>
       </c>
       <c r="E30">
         <v>0.05</v>
@@ -982,13 +982,13 @@
         <v>200</v>
       </c>
       <c r="C31">
-        <v>0.040625</v>
+        <v>0.034375</v>
       </c>
       <c r="D31">
-        <v>0.053125</v>
+        <v>0.046875</v>
       </c>
       <c r="E31">
-        <v>0.0578125</v>
+        <v>0.05729166666666666</v>
       </c>
     </row>
   </sheetData>
